--- a/classification_progress.xlsx
+++ b/classification_progress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17962,66 +17962,66 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>渭源县国土局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>渭源县2014年度土地变更调查与遥感监测工作服务项目</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>获取土地资源信息</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>文县文体局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>文县文体局非物质文化遗产保护中心家电采购项目</t>
+          <t>防病毒墙-盐城局</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>组织文化保护服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>无供应商</t>
+          <t>中国美术馆</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>采购合同</t>
+          <t>中国美术馆移动硬盘采购合同</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -18031,22 +18031,22 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>信息不足默认政府日常采购</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>3</v>
+        <v>803</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>庆阳市西峰区陇东职业中等专业学校</t>
+          <t>中国人民抗日战争纪念馆</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>庆阳市西峰区陇东职业中等专业学校国家示范校建设人才培养就业竞争力提升项目</t>
+          <t>中苏共同抗战展览项目施工合同</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -18056,72 +18056,72 @@
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>组织职业教育服务</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>4</v>
+        <v>804</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>庆阳市西峰区陇东职业中等专业学校</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>庆阳市西峰区陇东职业中等专业学校国家示范校建设人才培养就业竞争力提升项目</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>组织职业教育服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>5</v>
+        <v>805</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>无供应商</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>政府采购合同</t>
+          <t>政府采购合同书</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>信息不足默认政府日常采购</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>6</v>
+        <v>806</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>东乡族自治县第二中学</t>
+          <t>中国美术馆</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>东乡县第二中学冬季取暖用煤采购项目购销合同</t>
+          <t>中国美术馆修复中心纸本修复工作室设备采购合同</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -18131,47 +18131,47 @@
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>保障学校教学运转</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>7</v>
+        <v>807</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>无供应商</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>2015年贵州省牲畜耳标招标采购合同</t>
+          <t>政府采购合同书</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>采集畜牧追溯信息</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>8</v>
+        <v>808</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>无供应商</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>兴仁县公安局办公区附属-土建、绿化工程建设工程施工合同</t>
+          <t>苏州倍隆医疗设备贸易有限公司销售合同</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -18181,72 +18181,72 @@
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>增强执法机构能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>9</v>
+        <v>809</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>文县广电局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>办公家具采购协议</t>
+          <t>镇江局天融信防火墙</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>组织宣传公共服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>10</v>
+        <v>810</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>渭源县农牧局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>渭源县农牧局培训资料印刷供货合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>组织农业技术推广</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>11</v>
+        <v>811</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>永靖县机关事务管理局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>永靖县机关事务管理局司法楼会议室音响、桌椅及空调设备采购项目政府采购购销合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -18256,22 +18256,22 @@
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>增强司法机构能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>12</v>
+        <v>812</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>永靖县机关事务管理局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>永靖县机关事务管理局司法楼会议室音响、桌椅及空调设备采购项目政府采购购销合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -18281,22 +18281,22 @@
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>增强司法机构能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>13</v>
+        <v>813</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>岷县职业中等专业学校</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>岷县职业中等专业学校购置工程测量实训设备采购项目合同</t>
+          <t>中央电视台Aurus及triangon调音台全包代维</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -18306,47 +18306,47 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>组织职业教育服务</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>14</v>
+        <v>814</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>广河县农村能源办公室</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>广河县2013年农村沼气项目建设政府采购购销合同</t>
+          <t>设备购销合同</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>组织农村能源建设</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>15</v>
+        <v>815</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>广河县农村能源办公室</t>
+          <t>中国美术馆</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>广河县2013年农村沼气项目建设政府采购购销合同</t>
+          <t>中国美术馆安检、中控、发票检票、车辆管理保安服务采购合同</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -18356,97 +18356,97 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>组织农村能源建设</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>16</v>
+        <v>816</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>上海市职工保障互助会</t>
+          <t>中国美术馆</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>社区事务一口式受理职保业务信息系统采购合同</t>
+          <t>中国美术馆高清非编采集采购合同</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>采集职工社保信息</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>17</v>
+        <v>817</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>岷县农牧局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+          <t>深信服上网行为管理</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>组织生态农业项目</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>18</v>
+        <v>818</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>岷县农牧局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货补充合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>组织生态农业项目</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>19</v>
+        <v>819</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>岷县农牧局</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+          <t>节目推介官方微博的运营服务项目</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -18456,97 +18456,97 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>组织生态农业项目</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>20</v>
+        <v>820</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>岷县农牧局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+          <t>防火墙-盐城局</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>组织生态农业项目</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>21</v>
+        <v>821</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>秦安县教育体育局</t>
+          <t>盐城出入境检验检疫局</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>2015年春季学期秦安县农村义务教育学生营养改善计划食品采购项目政府采购合同</t>
+          <t>上网行为管理-盐城局</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>22</v>
+        <v>822</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>天水市秦州区农业局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>天水市秦州区基层农机推广体系改革与建设补助项目农资（第一包采购合同）</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>组织农业技术推广</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>23</v>
+        <v>823</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>海口市公安消防支队</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>消防车辆</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -18556,47 +18556,47 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>增强消防执法能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>24</v>
+        <v>824</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>临夏市房地产管理局</t>
+          <t>永靖县人民医院</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>临夏市数字房产管理平台及历史房产档案数字化加工项目</t>
+          <t>永靖县人民医院医疗设备仪器采购项目供货合同</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>采集房产登记信息</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>广河县庄窠集镇人民政府</t>
+          <t>积石山县农村能源办公室</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>广河县庄窠集镇宋家山村核桃基地建设项目竞争性谈判</t>
+          <t>积石山县2015年新能源设施建设项目</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -18606,97 +18606,97 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>组织农村能源建设</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>26</v>
+        <v>826</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>广河县城关镇人民政府</t>
+          <t>公安部第一研究所</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>广河县城关镇大杨家村啤特果基地建设项目竞争性谈判</t>
+          <t>政府采购合同</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>增强执法科研能力</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>27</v>
+        <v>827</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>海口市公安局交通警察支队</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>统一城区道路中间隔离护栏规格、尺寸、样式、颜色项目</t>
+          <t>专利管理服务-技术项目专利挖掘</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>合规能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>增强交通执法管控</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>28</v>
+        <v>828</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>岷县县委党校</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>岷县党校"富民兴陇"系列讲座视频会议系统设备采购项目供销合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>组织干部培训教育</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>29</v>
+        <v>829</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>临泽县工业和信息化局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>临泽县扎尔墩滩工业集中区环境影响评价工程（评价技术咨询、报告编制、评审评估）合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -18706,47 +18706,47 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>环境合规监管审批</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>30</v>
+        <v>830</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>广河县林业局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>广河县2014年天然林资源保护工程二期建设人工造林苗木采购项目竞争性谈判采购合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>组织生态保护工程</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>31</v>
+        <v>831</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>无供应商</t>
+          <t>国家海洋局</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>钟山区城管局环卫专用车辆采购项目</t>
+          <t>配备500吨级近岸海洋环境监测船建造合同</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -18756,22 +18756,22 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>组织城市公共服务</t>
+          <t>组织海洋环境监测</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>32</v>
+        <v>832</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>兰州市七里河区人民医院</t>
+          <t>无供应商</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>兰州市七里河区人民医院医疗设备采购项目购销合同</t>
+          <t>剧场舞台灯光设备采购项目</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -18781,147 +18781,147 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>组织公共医疗服务</t>
+          <t>组织文化公共服务</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>33</v>
+        <v>833</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>秦安县文化广播影视局</t>
+          <t>大亚湾出入境检验检疫局综合技术服务中心</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>秦安县2013-2014年农家书屋补充更新出版物采购项目</t>
+          <t>中央单位批量集中采购简易合同</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>组织文化公共服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>34</v>
+        <v>834</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>海口市公安局交通警察支队</t>
+          <t>甘肃省永靖县人民医院</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>统一城区道路中间隔离护栏规格、尺寸、样式、颜色项目工程监理</t>
+          <t>永靖县人民医院医疗设备仪器采购项目供货合同</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>合规能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>增强交通执法管控</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>35</v>
+        <v>835</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>渭源县国土资源管理局</t>
+          <t>中央国家机关政府采购中心</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>渭源县耕地质量等别调查评价与监测工作服务项目供货合同</t>
+          <t>中央国家机关批量采购简易合同</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>获取土地资源信息</t>
+          <t>政府日常运营</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>36</v>
+        <v>836</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>皋兰县住房和城乡建设局</t>
+          <t>大亚湾出入境检验检疫局综合技术服务中心</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>皋兰县住房和城乡建设局春季绿化苗木采购项目购销合同</t>
+          <t>中央单位批量集中采购简易合同</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>组织城市绿化建设</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>37</v>
+        <v>837</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>渭源县国土资源管理局</t>
+          <t>公安部第一研究所</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>渭源县耕地后备资源调查评价工作服务项目供货合同</t>
+          <t>政府采购合同</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>获取土地资源信息</t>
+          <t>增强执法科研能力</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>38</v>
+        <v>838</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>岷县闾井镇人民政府</t>
+          <t>环县人民医院</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>岷县闾井镇和平村整村推进所需物资采购项目供销合同</t>
+          <t>环县人民医院胎儿监护仪等设备采购项目供货合同</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -18931,22 +18931,22 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>组织扶贫开发项目</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>39</v>
+        <v>839</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>徽县果树站</t>
+          <t>宁县中医医院</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>徽县2014年度巩固退耕还林成果后续产业中药材生产基地建设采购项目</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -18956,97 +18956,97 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>40</v>
+        <v>840</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>和政县人民政府政务中心</t>
+          <t>庆阳市中医医院</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>和政县人民政府政务中心电子政务监察平台项目</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>合规能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>增强政务监察能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>41</v>
+        <v>841</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>上海市金山区水利管理所</t>
+          <t>中华人民共和国镇江出入境检验检疫局</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>上海市西部地区流域泄洪通道防洪堤防达标工程（金山区白牛塘）勘察、设计、施工一体化项目</t>
+          <t>药品柜</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>组织水利基础设施</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>42</v>
+        <v>842</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>永靖县人民医院</t>
+          <t>国家税务总局</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>永靖县人民医院X线电子计算机断层扫描装置CT采购项目</t>
+          <t>国家税务总局堡垒机设备采购项目合同书</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>组织公共医疗服务</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>43</v>
+        <v>843</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>嘉峪关市酒钢三中</t>
+          <t>庆城县岐伯中医医院</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>嘉峪关市酒钢三中新校区教学楼公寓窗帘供货合同书</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -19056,47 +19056,47 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>保障学校教学运转</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>44</v>
+        <v>844</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>庆城县人民医院</t>
+          <t>江苏省淮安市国家税务局</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>庆城县人民医院医疗设备采购项目合同</t>
+          <t>淮安市国家税务局高清投影机采购项目采购合同</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>组织公共医疗服务</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>45</v>
+        <v>845</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>徽县教育局</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>徽县教育局2014年改薄设备采购项目合同</t>
+          <t>委托制作《中国电视》专版</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -19106,22 +19106,22 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>46</v>
+        <v>846</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>秦安县林业局</t>
+          <t>肃州区三墩镇中心卫生院</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>甘肃省秦安县2015年度林业重点项目苗木采购</t>
+          <t>酒泉市肃州区三墩镇中心卫生院锅炉采购项目</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -19131,47 +19131,47 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>组织生态保护工程</t>
+          <t>组织公共卫生服务</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>47</v>
+        <v>847</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>清水县农业局</t>
+          <t>江苏省淮安市国家税务局</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>甘肃省清水县2014年中央财政现代农业生产发展项目全钢架无立柱塑料大棚建设项目</t>
+          <t>食堂外包服务合同</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>48</v>
+        <v>848</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>西和县财政局</t>
+          <t>酒泉市西大街小学、酒泉第六中学</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>西和县行政事业单位协议供货、车辆定点保险服务及银行存款服务供应商入围（第二包）</t>
+          <t>全自动高清智能录播设备采购项目</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -19181,72 +19181,72 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>组织政府采购管理</t>
+          <t>组织教育公共服务</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>49</v>
+        <v>849</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>东乡县国土局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>东乡县唐汪镇三合山土地开发整理采购项目合同</t>
+          <t>设备购销合同</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>获取土地资源开发</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>白银市靖远县东湾镇瓜园村</t>
+          <t>海关总署物资装备采购中心</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>东湾镇瓜园村道路亮化工程太阳能路灯</t>
+          <t>海关信息系统采购ORACLE软件原厂高级技术支持服务</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>组织农村基础设施</t>
+          <t>增强海关数据采集</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>51</v>
+        <v>851</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>临洮县人民医院</t>
+          <t>甘肃省镇原县中医医院</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>临洮县人民医院高清电子胃镜及结肠镜采购项目</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -19262,41 +19262,41 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>52</v>
+        <v>852</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>皋兰县财政局</t>
+          <t>中华人民共和国番禺出入境检验检疫局</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+          <t>LED电子公告屏建设项目采购合同</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>组织农村公共服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>53</v>
+        <v>853</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>广河县农业综合开发办公室</t>
+          <t>庆阳市妇幼保健院</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>2015年广河县农业综合开发项目工程合同书</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -19306,22 +19306,22 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>54</v>
+        <v>854</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>皋兰县财政局</t>
+          <t>北京中医药大学</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+          <t>食堂设备</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -19331,147 +19331,147 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>组织农村公共服务</t>
+          <t>组织高等教育服务</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>55</v>
+        <v>855</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>康县农村综合改革领导小组办公室</t>
+          <t>中华人民共和国镇江出入境检验检疫局</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>康县2015一事一议财政补实物（水泥）项目</t>
+          <t>紫外可见分光光度计</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>组织农村基础设施</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>56</v>
+        <v>856</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>皋兰县财政局</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+          <t>苏州倍隆医疗设备贸易有限公司销售合同</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>组织农村公共服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>57</v>
+        <v>857</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>环县中医医院</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第6包</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>58</v>
+        <v>858</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>2015年第二季度打印机复印机批量集中采购询价项目第2、3、4包</t>
+          <t>中国有线专线租用</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>59</v>
+        <v>859</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>北京中医药大学</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第1包</t>
+          <t>广播系统</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>组织高等教育服务</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>60</v>
+        <v>860</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>和政县教育局</t>
+          <t>合水县人民医院</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>和政县教育局龙泉小学、和政一中设备器材采购项目</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -19481,72 +19481,72 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>61</v>
+        <v>861</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>中华人民共和国镇江出入境检验检疫局</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第5包</t>
+          <t>机动车配光测试用万能夹具</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>62</v>
+        <v>862</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>镇原县第二人民医院</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>增值税专用发票印制合同（2015）</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>63</v>
+        <v>863</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>文物出版社印刷厂</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>北京市房屋租赁合同</t>
+          <t>新址安检仪进行更换零部件</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -19556,47 +19556,47 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>组织文化出版服务</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>64</v>
+        <v>864</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>国家税务总局</t>
+          <t>中国气象局公共气象服务中心</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>国家税务总局运维支持中心工作场地租用项目第2包总局运维支持中心</t>
+          <t>海事卫星服务合同</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>增强税收征管能力</t>
+          <t>组织气象公共服务</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>65</v>
+        <v>865</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>中国农业电影电视中心</t>
+          <t>庆阳市西峰区人民医院</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>中国农业电影电视中心光纤传输及配套设备购置合同书</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -19606,22 +19606,22 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>组织农业宣传服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>66</v>
+        <v>866</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>秦安县兴国镇初级中学</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>秦安县兴国镇初级中学高清全自动录播系统采购项目</t>
+          <t>STUDER调音台全包代维</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -19631,22 +19631,22 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>67</v>
+        <v>867</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>靖远县教育局</t>
+          <t>华池县中医医院</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>白银市靖远县青少年活动中心音乐器材</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -19656,22 +19656,22 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>68</v>
+        <v>868</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>徽县农村合作经济经营管理站</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>技术服务合同</t>
+          <t>抗战胜利七十周年纪念大会紧急采购设备</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -19681,22 +19681,22 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>组织农村经济服务</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>69</v>
+        <v>869</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>上海市金山区枫泾镇人民政府</t>
+          <t>甘肃省镇原县第一人民医院</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>枫泾镇污水管网完善工程（施工）</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -19706,22 +19706,22 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>组织环境基础设施</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>70</v>
+        <v>870</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>积石山县农业综合开发办公室</t>
+          <t>庆阳市老年保健医院</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>积石山县2015年大河家镇刘集乡农业综合开发高标准农田建设项目</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -19731,22 +19731,22 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>71</v>
+        <v>871</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>徽县农村合作经济经营管理站</t>
+          <t>宁县人民医院</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>技术服务合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -19756,72 +19756,72 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>组织农村经济服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>72</v>
+        <v>872</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>东乡族自治县农业综合开发办公室</t>
+          <t>中华人民共和国镇江出入境检验检疫局</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>东乡县农业综合开发2015年东塬乡高标准农田建设项目建设工程施工合同</t>
+          <t>高精度自动密度计</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>组织农业产业发展</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>73</v>
+        <v>873</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>天水市秦州区环境保护局</t>
+          <t>宁县第二人民医院</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>天水市秦州区2014年农村环境综合整治项目采购合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>合规能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>增强环境执法能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>74</v>
+        <v>874</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>临夏市教育局</t>
+          <t>甘肃省环县人民医院</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>临夏州示范性综合实践基地设备采购项目（二次）供货合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -19831,22 +19831,22 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>75</v>
+        <v>875</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>临夏市教育局</t>
+          <t>北京中医药大学</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>临夏州示范性综合实践基地设备采购项目（二次）采购合同</t>
+          <t>研究生信息综合管理系统</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -19856,22 +19856,22 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>组织教育公共服务</t>
+          <t>组织高等教育服务</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>江苏省淮安市国家税务局</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>物业管理委托合同</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -19881,147 +19881,147 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>77</v>
+        <v>877</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>78</v>
+        <v>878</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>庆城县人民医院</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>79</v>
+        <v>879</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>无线频率监测代维</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>80</v>
+        <v>880</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>华池县人民医院</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>81</v>
+        <v>881</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>正宁县中医医院</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>82</v>
+        <v>882</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>上海市宝山区燃气管理所</t>
+          <t>合水县中医医院</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>呼玛地区老公房燃气内管改造项目工程施工合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -20031,122 +20031,122 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>组织公用事业服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>83</v>
+        <v>883</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>中央电视台</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>高清镜头</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织广播电视服务</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>84</v>
+        <v>884</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>购销合同</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>85</v>
+        <v>885</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>正宁县人民医院</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>输血科信息化建设所需系统客户端</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>86</v>
+        <v>886</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>庆阳市公安局交警支队</t>
+          <t>北海市铁山港区国家税务局</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>政府采购合同</t>
+          <t>铁山港区国税局物业管理服务采购</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>合规能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>增强交通执法能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>87</v>
+        <v>887</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>四川省国家税务局</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>四川省国家税务局普通发票印制资质采购合同</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -20156,22 +20156,22 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>88</v>
+        <v>888</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>北海市铁山港区国家税务局</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>专用设备采购</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -20181,22 +20181,22 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>89</v>
+        <v>889</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>四川省国家税务局</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>四川省国家税务局普通发票印制资质采购合同</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -20206,22 +20206,22 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>90</v>
+        <v>890</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>北海市铁山港区国家税务局</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>国税系统批量采购合同</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -20231,22 +20231,22 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>91</v>
+        <v>891</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>北海市铁山港区国家税务局</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>A4激光彩色双面打印机</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -20256,47 +20256,47 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>92</v>
+        <v>892</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>中国农业电影电视中心</t>
+          <t>中华人民共和国广州出入境检验检疫局</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>中华人民共和国广州出入境检验检疫局数码相机采购项目</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>组织农业宣传服务</t>
+          <t>增强检验检疫能力</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>93</v>
+        <v>893</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>中国人民解放军61046部队技术开发处</t>
+          <t>四川省国家税务局</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>国家税务总局运维支持中心工作场地租用项目-总局呼叫中心包</t>
+          <t>四川省国家税务局普通发票印制资质采购合同</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -20312,66 +20312,66 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>94</v>
+        <v>894</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>中国农业电影电视中心</t>
+          <t>江苏省国家税务局</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>《乡约》栏目媒体营销项目服务合同</t>
+          <t>江苏省国税局纳税咨询整合硬件采购合同</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>提取能力</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>组织农业宣传服务</t>
+          <t>增强税收征管能力</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>95</v>
+        <v>895</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>中国文化遗产研究院</t>
+          <t>白银市公安局</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>中国文化遗产研究院图书出版</t>
+          <t>白银市公安局老干部活动中心维修改造工程采购合同</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>协调能力</t>
+          <t>合规能力</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>组织文化保护服务</t>
+          <t>增强执法机构能力</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>96</v>
+        <v>896</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>水利部水库移民开发局</t>
+          <t>北京市社会福利医院</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>技术服务合同</t>
+          <t>北京市社会福利医院福利医院购置检验及骨密度仪采购合同</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -20381,47 +20381,47 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>组织水利移民服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>97</v>
+        <v>897</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>中国电子口岸数据中心</t>
+          <t>环县人民医院</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>中央国家机关政府采购网上竞价合同</t>
+          <t>环县人民医院检验科、病理科、内窥镜室安装试验台采购项目</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>提取能力</t>
+          <t>协调能力</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>增强海关数据采集能力</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>98</v>
+        <v>898</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>水利部水库移民开发局</t>
+          <t>北京市社会福利医院</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>技术服务合同</t>
+          <t>北京市社会福利医院购置微波治疗仪等理疗设备采购合同</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -20431,30 +20431,5030 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>组织水利移民服务</t>
+          <t>组织公共医疗服务</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
+        <v>899</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>900</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>正宁县教育体育局</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>正宁县教育体育局116所中小学节能饮水设备合同</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>901</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>海峡两岸农业合作项目-台湾农业两岸行推广合同</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>902</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心节目创作系统软件维护升级合同</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>903</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>中国科学院西安光学精密机械研究所</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>快速温变试验箱</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>组织科学研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>904</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>北京市社会福利医院</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>北京市社会福利医院购置妇科阴道镜等采购合同</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>905</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>北京市社会福利医院</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>北京市社会福利医院购置糖尿病及并发症早期检测系统采购合同</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>906</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>海峡两岸农业合作项目-台湾农业两岸行节目设备租赁合同</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>907</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>庆阳市人民医院</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>输血科信息化建设所需系统客户端</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>908</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>海峡两岸农业合作项目-台湾农业两岸行节目视频制作合同</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>909</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>中央统战部</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>联合摄制三集文献纪录片《李鼎铭》协议书</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>组织统战宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>910</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>国家海洋局天津海水淡化与综合利用研究所</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>在线离子检测系统</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>组织海洋科学研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>911</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>肃州区上坝镇人民政府</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>酒泉市肃州区上坝镇旧墩村多功能民俗文化活动中心建设项目</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>组织农村公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>912</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>酒泉市第二人民医院</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>酒泉市第二人民医院CT/ECT机房改建项目</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>913</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>庆城县教育局</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>庆城县教育局幼儿园玩教具及饮水设备采购项目</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>914</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>富蕴县国家税务局</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>新疆区阿勒泰地区富蕴县国家税务局便携式计算机采购</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>915</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>中央电视台</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>中央电视台高端制作岛5项目部分设备</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>组织广播电视服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>916</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>中国银行业监督管理委员会梅州监管分局</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>汽车保险合同</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>增强金融监管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>917</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>中国国家博物馆</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>中国国家博物馆机电设备系统运行、维修及保养等物业管理项目合同</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>918</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>永靖县农业综合开发办公室</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>永靖县农业综合开发2015年小岭乡高标准农田建设项目施工合同</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>919</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>中国银行业监督管理委员会梅州监管分局</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>汽车保险合同</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>增强金融监管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>920</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>宁波市国家税务局</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>宁波市国家税务局机关空调采购合同</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>921</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>设备购销合同</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>922</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>设备购销合同</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>923</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>深圳市国家税务局</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>深圳市国家税务局空调器采购项目合同</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>924</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>中华人民共和国昆山出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>925</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>中华人民共和国昆山出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>926</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>设备购销合同</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>927</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>设备购销合同</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>928</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>929</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>贵州省社会组织信息管理系统运行维护合同书</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>组织社会组织服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>930</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>931</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>北京中医药大学</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>电动病床等</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>组织高等教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>932</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>933</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>设备购销合同</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>934</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>中国农业科学院农田灌溉研究所</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>农业部重点实验室建设项目仪器设备统一招标采购</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>组织农业科学研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>935</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>936</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>937</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>吉林省白山市经济开发区国家税务局</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>国税系统批量集中采购合同</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>938</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>939</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>北京市农业技术推广站</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>2015年蔬菜产业提质增效工程采购合同</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>组织农业技术推广</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>940</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>广西壮族自治区国家税务局</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>平桂管理区国税局空调机采购</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>941</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>942</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>943</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>944</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>四川省国家税务局</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>四川省国家税务局广域网链路、互联网光纤链路租赁项目合同</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>945</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>中华人民共和国东莞出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>中央政采网图形工作站网上竞价</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>946</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>947</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>四川省国家税务局</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>四川省国家税务局广域网链路、互联网光纤链路租赁项目合同</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>948</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>949</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>950</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>海关总署物资装备采购中心</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>海关总署2015年网站普查监测服务采购项目合同书</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>增强海关数据采集</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>951</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>952</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>北京市农业技术推广站</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>2015年蔬菜产业提质增效工程采购合同</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>组织农业技术推广</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>953</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统PC机批量集中采购项目协议</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>954</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>四川省国家税务局</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>四川省国家税务局广域网链路、互联网光纤链路租赁项目合同</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>955</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>956</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>靖远县教育局</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>白银市靖远县2015年学前教育建设专项补助资金设备采购项目</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>957</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>广西壮族自治区国家税务局</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>平桂管理区国家税务局空调采购</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>958</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>四川省国家税务局</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>四川省国家税务局广域网链路、互联网光纤链路租赁项目合同</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>959</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>靖远县教育局</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>白银市靖远县2015年学前教育建设专项补助资金设备采购项目</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>960</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>2015年第三季度国税系统打印机复印机批量集中采购招标项目协议</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>961</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>购销合同</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>962</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>中共哈尔滨市南岗区委员会宣传部</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>黑龙江省政府采购合同</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>组织宣传公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>963</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>积石山县政法委</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>积石山县政法委治安直路卡口设备采购项目</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>增强执法监控能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>964</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>庆阳市环境保护局</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>庆阳市环保局户外广告牌政府采购购销合同</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>增强环境执法能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>965</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>黄河水利委员会黄河中心医院</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>黄河中心医院医用设备采购合同</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>966</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>政府采购合同书</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>967</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>国家基础地理信息中心</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>国家基础地理信息中心2015年存储系统维保服务合同</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>采集地理信息数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>968</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>黄河水利委员会黄河中心医院</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>黄河中心医院医用设备采购合同</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>969</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>北京中医药大学</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>办公家具</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>组织高等教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>970</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>黄河水利委员会黄河中心医院</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>施工合同</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>971</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>中华人民共和国江苏出入境检验检疫局</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>政府采购合同书</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>增强检验检疫能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>972</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>黄河水利委员会黄河中心医院</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>黄河中心医院医用设备采购合同</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>973</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>秦安县农村能源开发站</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>秦安县2014年巩固退耕还林成果农村能源建设项目</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>组织农村能源建设</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>974</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>临泽县职业技术教育中心</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>临泽县职业技术教育中心网络视频监控等政府采购项目</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>组织职业教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>975</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>江苏省国税局复印机批量采购项目合同</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>976</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>湖北省国家税务局（中央预算单位）</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>湖北省国家税务局12366纳税服务热线中继线路使用服务合同</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>977</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>靖远县房地产管理局</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>白银市靖远原交通大厦公租房改造工程</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>组织住房公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>978</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>江苏省国税局二季度打印机批量采购合同</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>979</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>江苏省国税局二季度打印机批量采购合同</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>980</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>庆城国土资源局</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>庆城县驿马北胡同沟地质灾害综合治理工程二期项目</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>获取地质灾害数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>981</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>靖远县房地产管理局</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>白银市靖远原计生局办公楼公租房改造工程</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>组织住房公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>982</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>靖远县房地产管理局</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>白银市靖远县惠安小区廉租住房室外绿化工程</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>组织住房公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>983</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>礼县教育局</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>2015-2016学年度礼县农村义务教育学校学生营养改善计划项目食品采购协议</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>984</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>中国科学院上海天文台</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>高性能计算和高性能计算存储</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>组织科学研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>985</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>江苏省国税局第二季度便携式计算机批量采购合同</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>986</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>中国气象局气象干部培训学院湖北分院</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>中央国家机关政府集中采购电子验收单</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>组织气象教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>987</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>中国国家博物馆</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>988</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>白银市食品检验检测中心</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>白银市食品检验检测中心实验室设备采购项目</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>增强食品检验能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>989</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>中国国家博物馆</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>中央国家机关政府集中采购电子验收单</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>990</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>中国国家博物馆</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>991</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>中国科学院西安光学精密机械研究所</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>电控三维平移台</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>组织科学研究</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>992</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>白银市食品检验检测中心</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>白银市食品检验检测中心实验室设备采购项目</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>增强食品检验能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>993</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>江苏省国税局第二季度台式机批量采购合同</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>994</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>湖北省自动化工程学校</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>中央国家机关政府集中采购电子验收单</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>组织职业教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>995</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>湘潭市国家税务局</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>湘潭市国家税务局职工活动中心维修改造项目施工合同</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>996</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心海域无人机倾斜摄影服务采购项目合同</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>采集海洋监测数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>997</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心海域遥感影像处理服协议</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>采集海洋监测数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>998</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>国家海洋环境监测中心直读式流速仪购销合同</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>组织海洋环境监测</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>999</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>永靖县文化广播影视局</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>黄河水电博览馆内设计布展一体化中央空调、新风系统项目购销合同</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>渭源县国土局</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>渭源县2014年度土地变更调查与遥感监测工作服务项目</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>获取土地资源信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>文县文体局</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>文县文体局非物质文化遗产保护中心家电采购项目</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>组织文化保护服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>2</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>采购合同</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>信息不足默认政府日常采购</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>3</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>庆阳市西峰区陇东职业中等专业学校</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>庆阳市西峰区陇东职业中等专业学校国家示范校建设人才培养就业竞争力提升项目</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>组织职业教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>4</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>庆阳市西峰区陇东职业中等专业学校</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>庆阳市西峰区陇东职业中等专业学校国家示范校建设人才培养就业竞争力提升项目</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>组织职业教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>5</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>政府采购合同</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>信息不足默认政府日常采购</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>6</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>东乡族自治县第二中学</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>东乡县第二中学冬季取暖用煤采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>保障学校教学运转</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>7</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>2015年贵州省牲畜耳标招标采购合同</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>采集畜牧追溯信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>8</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>兴仁县公安局办公区附属-土建、绿化工程建设工程施工合同</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>增强执法机构能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>9</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>文县广电局</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>办公家具采购协议</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>组织宣传公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>10</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>渭源县农牧局</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>渭源县农牧局培训资料印刷供货合同</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>组织农业技术推广</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>11</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>永靖县机关事务管理局</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>永靖县机关事务管理局司法楼会议室音响、桌椅及空调设备采购项目政府采购购销合同</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>增强司法机构能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>12</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>永靖县机关事务管理局</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>永靖县机关事务管理局司法楼会议室音响、桌椅及空调设备采购项目政府采购购销合同</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>增强司法机构能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>13</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>岷县职业中等专业学校</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>岷县职业中等专业学校购置工程测量实训设备采购项目合同</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>组织职业教育服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>14</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>广河县农村能源办公室</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>广河县2013年农村沼气项目建设政府采购购销合同</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>组织农村能源建设</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>15</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>广河县农村能源办公室</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>广河县2013年农村沼气项目建设政府采购购销合同</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>组织农村能源建设</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>16</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>上海市职工保障互助会</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>社区事务一口式受理职保业务信息系统采购合同</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>采集职工社保信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>17</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>岷县农牧局</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>组织生态农业项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>18</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>岷县农牧局</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货补充合同</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>组织生态农业项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>19</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>岷县农牧局</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>组织生态农业项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>20</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>岷县农牧局</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>岷县农牧局2014年度巩固退耕还林成果农产品基地建设项目所需物资采购项目供货合同</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>组织生态农业项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>21</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>秦安县教育体育局</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>2015年春季学期秦安县农村义务教育学生营养改善计划食品采购项目政府采购合同</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>22</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>天水市秦州区农业局</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>天水市秦州区基层农机推广体系改革与建设补助项目农资（第一包采购合同）</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>组织农业技术推广</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>23</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>海口市公安消防支队</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>消防车辆</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>增强消防执法能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>24</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>临夏市房地产管理局</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>临夏市数字房产管理平台及历史房产档案数字化加工项目</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>采集房产登记信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>25</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>广河县庄窠集镇人民政府</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>广河县庄窠集镇宋家山村核桃基地建设项目竞争性谈判</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>26</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>广河县城关镇人民政府</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>广河县城关镇大杨家村啤特果基地建设项目竞争性谈判</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>27</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>海口市公安局交通警察支队</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>统一城区道路中间隔离护栏规格、尺寸、样式、颜色项目</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>增强交通执法管控</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>28</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>岷县县委党校</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>岷县党校"富民兴陇"系列讲座视频会议系统设备采购项目供销合同</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>组织干部培训教育</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>29</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>临泽县工业和信息化局</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>临泽县扎尔墩滩工业集中区环境影响评价工程（评价技术咨询、报告编制、评审评估）合同</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>环境合规监管审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>30</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>广河县林业局</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>广河县2014年天然林资源保护工程二期建设人工造林苗木采购项目竞争性谈判采购合同</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>组织生态保护工程</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>31</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>无供应商</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>钟山区城管局环卫专用车辆采购项目</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>组织城市公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>32</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>兰州市七里河区人民医院</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>兰州市七里河区人民医院医疗设备采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>33</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>秦安县文化广播影视局</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>秦安县2013-2014年农家书屋补充更新出版物采购项目</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>组织文化公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>34</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>海口市公安局交通警察支队</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>统一城区道路中间隔离护栏规格、尺寸、样式、颜色项目工程监理</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>增强交通执法管控</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>35</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>渭源县国土资源管理局</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>渭源县耕地质量等别调查评价与监测工作服务项目供货合同</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>获取土地资源信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>36</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>皋兰县住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>皋兰县住房和城乡建设局春季绿化苗木采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>组织城市绿化建设</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>37</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>渭源县国土资源管理局</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>渭源县耕地后备资源调查评价工作服务项目供货合同</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>获取土地资源信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>38</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>岷县闾井镇人民政府</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>岷县闾井镇和平村整村推进所需物资采购项目供销合同</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>组织扶贫开发项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>39</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>徽县果树站</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>徽县2014年度巩固退耕还林成果后续产业中药材生产基地建设采购项目</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>40</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>和政县人民政府政务中心</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>和政县人民政府政务中心电子政务监察平台项目</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>增强政务监察能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>41</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>上海市金山区水利管理所</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>上海市西部地区流域泄洪通道防洪堤防达标工程（金山区白牛塘）勘察、设计、施工一体化项目</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>组织水利基础设施</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>42</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>永靖县人民医院</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>永靖县人民医院X线电子计算机断层扫描装置CT采购项目</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>43</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>嘉峪关市酒钢三中</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>嘉峪关市酒钢三中新校区教学楼公寓窗帘供货合同书</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>保障学校教学运转</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>44</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>庆城县人民医院</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>庆城县人民医院医疗设备采购项目合同</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>45</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>徽县教育局</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>徽县教育局2014年改薄设备采购项目合同</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>46</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>秦安县林业局</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>甘肃省秦安县2015年度林业重点项目苗木采购</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>组织生态保护工程</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>47</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>清水县农业局</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>甘肃省清水县2014年中央财政现代农业生产发展项目全钢架无立柱塑料大棚建设项目</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>48</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>西和县财政局</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>西和县行政事业单位协议供货、车辆定点保险服务及银行存款服务供应商入围（第二包）</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>组织政府采购管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>49</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>东乡县国土局</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>东乡县唐汪镇三合山土地开发整理采购项目合同</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>获取土地资源开发</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>50</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>白银市靖远县东湾镇瓜园村</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>东湾镇瓜园村道路亮化工程太阳能路灯</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>组织农村基础设施</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>51</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>临洮县人民医院</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>临洮县人民医院高清电子胃镜及结肠镜采购项目</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>组织公共医疗服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>52</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>皋兰县财政局</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>组织农村公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>53</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>广河县农业综合开发办公室</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>2015年广河县农业综合开发项目工程合同书</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>54</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>皋兰县财政局</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>组织农村公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>55</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>康县农村综合改革领导小组办公室</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>康县2015一事一议财政补实物（水泥）项目</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>组织农村基础设施</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>56</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>皋兰县财政局</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>皋兰县财政局村级一事一议村容村貌改造亮化采购项目购销合同</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>组织农村公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>57</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第6包</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>58</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>2015年第二季度打印机复印机批量集中采购询价项目第2、3、4包</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>59</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第1包</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>60</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>和政县教育局</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>和政县教育局龙泉小学、和政一中设备器材采购项目</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>61</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>2015年第二季度国税系统打印机复印机批量集中采购询价项目第5包</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>62</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>增值税专用发票印制合同（2015）</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>63</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>文物出版社印刷厂</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>北京市房屋租赁合同</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>组织文化出版服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>64</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>国家税务总局运维支持中心工作场地租用项目第2包总局运维支持中心</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>65</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心光纤传输及配套设备购置合同书</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>66</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>秦安县兴国镇初级中学</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>秦安县兴国镇初级中学高清全自动录播系统采购项目</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>67</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>靖远县教育局</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>白银市靖远县青少年活动中心音乐器材</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>68</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>徽县农村合作经济经营管理站</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>技术服务合同</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>组织农村经济服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>69</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>上海市金山区枫泾镇人民政府</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>枫泾镇污水管网完善工程（施工）</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>组织环境基础设施</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>70</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>积石山县农业综合开发办公室</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>积石山县2015年大河家镇刘集乡农业综合开发高标准农田建设项目</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>71</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>徽县农村合作经济经营管理站</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>技术服务合同</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>组织农村经济服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>72</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>东乡族自治县农业综合开发办公室</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>东乡县农业综合开发2015年东塬乡高标准农田建设项目建设工程施工合同</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>组织农业产业发展</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>73</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>天水市秦州区环境保护局</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>天水市秦州区2014年农村环境综合整治项目采购合同</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>增强环境执法能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>74</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>临夏市教育局</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>临夏州示范性综合实践基地设备采购项目（二次）供货合同</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>75</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>临夏市教育局</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>临夏州示范性综合实践基地设备采购项目（二次）采购合同</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>组织教育公共服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>76</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>77</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>78</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>79</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>80</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>81</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>82</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>上海市宝山区燃气管理所</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>呼玛地区老公房燃气内管改造项目工程施工合同</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>组织公用事业服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>83</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>84</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>85</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>86</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>庆阳市公安局交警支队</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>政府采购合同</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>合规能力</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>增强交通执法能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>87</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>88</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>89</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>90</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>91</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>92</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>93</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>中国人民解放军61046部队技术开发处</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>国家税务总局运维支持中心工作场地租用项目-总局呼叫中心包</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>增强税收征管能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>94</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>中国农业电影电视中心</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>《乡约》栏目媒体营销项目服务合同</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>组织农业宣传服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>95</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>中国文化遗产研究院</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>中国文化遗产研究院图书出版</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>组织文化保护服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>96</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>水利部水库移民开发局</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>技术服务合同</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>组织水利移民服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>97</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>中国电子口岸数据中心</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购网上竞价合同</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>提取能力</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>增强海关数据采集能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>水利部水库移民开发局</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>技术服务合同</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>组织水利移民服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
         <v>99</v>
       </c>
-      <c r="B801" t="inlineStr">
+      <c r="B1001" t="inlineStr">
         <is>
           <t>国家旅游局</t>
         </is>
       </c>
-      <c r="C801" t="inlineStr">
+      <c r="C1001" t="inlineStr">
         <is>
           <t>国家旅游局2015年港澳台（中文繁体）旅游宣传品采购项目中标合同</t>
         </is>
       </c>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>协调能力</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr">
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>协调能力</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
         <is>
           <t>组织旅游公共服务</t>
         </is>
